--- a/biology/Zoologie/Cipangopaludina/Cipangopaludina.xlsx
+++ b/biology/Zoologie/Cipangopaludina/Cipangopaludina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cipangopaludina est un genre de mollusques gastéropodes de la famille des Viviparidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cipangopaludina a été créé en 1912 par le paléontologue américain Harold Hannibal (d) (1889-1965)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cipangopaludina a été créé en 1912 par le paléontologue américain Harold Hannibal (d) (1889-1965).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juillet 2021) :
 Cipangopaludina ampullacea (Charpentier, 1863)
 Cipangopaludina annandalei Brandt, 1968
 † Cipangopaludina artemica Popova, 1964
@@ -601,7 +617,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Harold Hannibal, « A Synopsis of the Recent and Tertiary Freshwater Mollusca of the Californian Province, Based upon an Ontogenetic Classification », Proceedings of the Malacological Society of London, Londres, Malacological Society of London et inconnu, vol. 10, no 3,‎ 1er octobre 1912, p. 167-211 (ISSN 0025-1194, OCLC 1909246, DOI 10.1093/OXFORDJOURNALS.MOLLUS.A063488, lire en ligne)</t>
         </is>
